--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.0359115</v>
+        <v>42.1867505</v>
       </c>
       <c r="H2">
-        <v>192.071823</v>
+        <v>84.373501</v>
       </c>
       <c r="I2">
-        <v>0.431645037026614</v>
+        <v>0.3672187856582576</v>
       </c>
       <c r="J2">
-        <v>0.355483932052054</v>
+        <v>0.3019707701631917</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N2">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O2">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P2">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q2">
-        <v>20507.05217905856</v>
+        <v>9647.769181339712</v>
       </c>
       <c r="R2">
-        <v>82028.20871623422</v>
+        <v>38591.07672535885</v>
       </c>
       <c r="S2">
-        <v>0.1840456825382255</v>
+        <v>0.2103407198448409</v>
       </c>
       <c r="T2">
-        <v>0.1183439813426626</v>
+        <v>0.1437181573285256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.0359115</v>
+        <v>42.1867505</v>
       </c>
       <c r="H3">
-        <v>192.071823</v>
+        <v>84.373501</v>
       </c>
       <c r="I3">
-        <v>0.431645037026614</v>
+        <v>0.3672187856582576</v>
       </c>
       <c r="J3">
-        <v>0.355483932052054</v>
+        <v>0.3019707701631917</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.424846</v>
       </c>
       <c r="O3">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P3">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q3">
-        <v>45.612128119043</v>
+        <v>20.03654090097433</v>
       </c>
       <c r="R3">
-        <v>273.672768714258</v>
+        <v>120.219245405846</v>
       </c>
       <c r="S3">
-        <v>0.000409357482410992</v>
+        <v>0.0004368367813424723</v>
       </c>
       <c r="T3">
-        <v>0.0003948339911548641</v>
+        <v>0.0004477120073149072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.0359115</v>
+        <v>42.1867505</v>
       </c>
       <c r="H4">
-        <v>192.071823</v>
+        <v>84.373501</v>
       </c>
       <c r="I4">
-        <v>0.431645037026614</v>
+        <v>0.3672187856582576</v>
       </c>
       <c r="J4">
-        <v>0.355483932052054</v>
+        <v>0.3019707701631917</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N4">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O4">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P4">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q4">
-        <v>7325.053101485797</v>
+        <v>1615.946870385053</v>
       </c>
       <c r="R4">
-        <v>43950.31860891478</v>
+        <v>9695.681222310321</v>
       </c>
       <c r="S4">
-        <v>0.06574052603564351</v>
+        <v>0.03523088307349106</v>
       </c>
       <c r="T4">
-        <v>0.06340813443154106</v>
+        <v>0.036107969964973</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>96.0359115</v>
+        <v>42.1867505</v>
       </c>
       <c r="H5">
-        <v>192.071823</v>
+        <v>84.373501</v>
       </c>
       <c r="I5">
-        <v>0.431645037026614</v>
+        <v>0.3672187856582576</v>
       </c>
       <c r="J5">
-        <v>0.355483932052054</v>
+        <v>0.3019707701631917</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N5">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O5">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P5">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q5">
-        <v>580.4608805217247</v>
+        <v>339.810309722953</v>
       </c>
       <c r="R5">
-        <v>2321.843522086899</v>
+        <v>1359.241238891812</v>
       </c>
       <c r="S5">
-        <v>0.005209491740185578</v>
+        <v>0.007408546350390502</v>
       </c>
       <c r="T5">
-        <v>0.003349776994509121</v>
+        <v>0.005061990045229997</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>96.0359115</v>
+        <v>42.1867505</v>
       </c>
       <c r="H6">
-        <v>192.071823</v>
+        <v>84.373501</v>
       </c>
       <c r="I6">
-        <v>0.431645037026614</v>
+        <v>0.3672187856582576</v>
       </c>
       <c r="J6">
-        <v>0.355483932052054</v>
+        <v>0.3019707701631917</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N6">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O6">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P6">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q6">
-        <v>14026.98669875908</v>
+        <v>898.0798273093482</v>
       </c>
       <c r="R6">
-        <v>84161.92019255448</v>
+        <v>5388.478963856089</v>
       </c>
       <c r="S6">
-        <v>0.1258887098148615</v>
+        <v>0.01957994162212608</v>
       </c>
       <c r="T6">
-        <v>0.1214223359123424</v>
+        <v>0.0200673920813418</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>96.0359115</v>
+        <v>42.1867505</v>
       </c>
       <c r="H7">
-        <v>192.071823</v>
+        <v>84.373501</v>
       </c>
       <c r="I7">
-        <v>0.431645037026614</v>
+        <v>0.3672187856582576</v>
       </c>
       <c r="J7">
-        <v>0.355483932052054</v>
+        <v>0.3019707701631917</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N7">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O7">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P7">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q7">
-        <v>5610.325083103578</v>
+        <v>4321.705936715879</v>
       </c>
       <c r="R7">
-        <v>33661.95049862147</v>
+        <v>25930.23562029527</v>
       </c>
       <c r="S7">
-        <v>0.05035126941528695</v>
+        <v>0.09422185798606661</v>
       </c>
       <c r="T7">
-        <v>0.04856486937984394</v>
+        <v>0.0965675487358064</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>148.106155</v>
       </c>
       <c r="I8">
-        <v>0.2218936845614064</v>
+        <v>0.4297349423931389</v>
       </c>
       <c r="J8">
-        <v>0.2741128683956469</v>
+        <v>0.5300684357196348</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N8">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O8">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P8">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q8">
-        <v>10541.96151275048</v>
+        <v>11290.22723043279</v>
       </c>
       <c r="R8">
-        <v>63251.76907650289</v>
+        <v>67741.36338259676</v>
       </c>
       <c r="S8">
-        <v>0.09461147730862887</v>
+        <v>0.2461495997908284</v>
       </c>
       <c r="T8">
-        <v>0.09125478047893311</v>
+        <v>0.2522775922930233</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>148.106155</v>
       </c>
       <c r="I9">
-        <v>0.2218936845614064</v>
+        <v>0.4297349423931389</v>
       </c>
       <c r="J9">
-        <v>0.2741128683956469</v>
+        <v>0.5300684357196348</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.424846</v>
       </c>
       <c r="O9">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P9">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q9">
         <v>23.44760694745889</v>
@@ -1013,10 +1013,10 @@
         <v>211.02846252713</v>
       </c>
       <c r="S9">
-        <v>0.0002104364287393754</v>
+        <v>0.0005112048631414841</v>
       </c>
       <c r="T9">
-        <v>0.0003044556113431116</v>
+        <v>0.0007858972682755307</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>148.106155</v>
       </c>
       <c r="I10">
-        <v>0.2218936845614064</v>
+        <v>0.4297349423931389</v>
       </c>
       <c r="J10">
-        <v>0.2741128683956469</v>
+        <v>0.5300684357196348</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N10">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O10">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P10">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q10">
-        <v>3765.554756503374</v>
+        <v>1891.049320939549</v>
       </c>
       <c r="R10">
-        <v>33889.99280853036</v>
+        <v>17019.44388845595</v>
       </c>
       <c r="S10">
-        <v>0.03379491548782615</v>
+        <v>0.04122866830166928</v>
       </c>
       <c r="T10">
-        <v>0.04889387125970402</v>
+        <v>0.06338260867434711</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>148.106155</v>
       </c>
       <c r="I11">
-        <v>0.2218936845614064</v>
+        <v>0.4297349423931389</v>
       </c>
       <c r="J11">
-        <v>0.2741128683956469</v>
+        <v>0.5300684357196348</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N11">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O11">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P11">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q11">
-        <v>298.3947282470025</v>
+        <v>397.6603855154767</v>
       </c>
       <c r="R11">
-        <v>1790.368369482015</v>
+        <v>2385.96231309286</v>
       </c>
       <c r="S11">
-        <v>0.002678018320064035</v>
+        <v>0.008669794039526068</v>
       </c>
       <c r="T11">
-        <v>0.002583005581012277</v>
+        <v>0.00888563202144819</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>148.106155</v>
       </c>
       <c r="I12">
-        <v>0.2218936845614064</v>
+        <v>0.4297349423931389</v>
       </c>
       <c r="J12">
-        <v>0.2741128683956469</v>
+        <v>0.5300684357196348</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N12">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O12">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P12">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q12">
-        <v>7210.785471604028</v>
+        <v>1050.970968605033</v>
       </c>
       <c r="R12">
-        <v>64897.06924443626</v>
+        <v>9458.738717445294</v>
       </c>
       <c r="S12">
-        <v>0.0647150025352405</v>
+        <v>0.02291327517453264</v>
       </c>
       <c r="T12">
-        <v>0.09362849283257677</v>
+        <v>0.03522556545383818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>148.106155</v>
       </c>
       <c r="I13">
-        <v>0.2218936845614064</v>
+        <v>0.4297349423931389</v>
       </c>
       <c r="J13">
-        <v>0.2741128683956469</v>
+        <v>0.5300684357196348</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N13">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O13">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P13">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q13">
-        <v>2884.072785482705</v>
+        <v>5057.442931263945</v>
       </c>
       <c r="R13">
-        <v>25956.65506934434</v>
+        <v>45516.98638137551</v>
       </c>
       <c r="S13">
-        <v>0.02588383448090752</v>
+        <v>0.1102624002234412</v>
       </c>
       <c r="T13">
-        <v>0.03744826263207759</v>
+        <v>0.1695111400087024</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.09219533333333334</v>
+        <v>0.006662</v>
       </c>
       <c r="H14">
-        <v>0.276586</v>
+        <v>0.019986</v>
       </c>
       <c r="I14">
-        <v>0.0004143830932489008</v>
+        <v>5.799004476666939E-05</v>
       </c>
       <c r="J14">
-        <v>0.000511901627708034</v>
+        <v>7.15294226380573E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N14">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O14">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P14">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q14">
-        <v>19.686953367776</v>
+        <v>1.52354560435</v>
       </c>
       <c r="R14">
-        <v>118.121720206656</v>
+        <v>9.1412736261</v>
       </c>
       <c r="S14">
-        <v>0.0001766855000920416</v>
+        <v>3.321635013358828E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001704169196313698</v>
+        <v>3.404328442371869E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.09219533333333334</v>
+        <v>0.006662</v>
       </c>
       <c r="H15">
-        <v>0.276586</v>
+        <v>0.019986</v>
       </c>
       <c r="I15">
-        <v>0.0004143830932489008</v>
+        <v>5.799004476666939E-05</v>
       </c>
       <c r="J15">
-        <v>0.000511901627708034</v>
+        <v>7.15294226380573E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.424846</v>
       </c>
       <c r="O15">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P15">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q15">
-        <v>0.04378805063955556</v>
+        <v>0.003164108017333334</v>
       </c>
       <c r="R15">
-        <v>0.394092455756</v>
+        <v>0.028476972156</v>
       </c>
       <c r="S15">
-        <v>3.929868416292955E-07</v>
+        <v>6.898390141007781E-08</v>
       </c>
       <c r="T15">
-        <v>5.685662403358313E-07</v>
+        <v>1.060519247411072E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.09219533333333334</v>
+        <v>0.006662</v>
       </c>
       <c r="H16">
-        <v>0.276586</v>
+        <v>0.019986</v>
       </c>
       <c r="I16">
-        <v>0.0004143830932489008</v>
+        <v>5.799004476666939E-05</v>
       </c>
       <c r="J16">
-        <v>0.000511901627708034</v>
+        <v>7.15294226380573E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N16">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O16">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P16">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q16">
-        <v>7.032116442981335</v>
+        <v>0.2551852873926667</v>
       </c>
       <c r="R16">
-        <v>63.289047986832</v>
+        <v>2.296667586534</v>
       </c>
       <c r="S16">
-        <v>6.311149253125829E-05</v>
+        <v>5.56355112099941E-06</v>
       </c>
       <c r="T16">
-        <v>9.130856361936137E-05</v>
+        <v>8.553086919078425E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.09219533333333334</v>
+        <v>0.006662</v>
       </c>
       <c r="H17">
-        <v>0.276586</v>
+        <v>0.019986</v>
       </c>
       <c r="I17">
-        <v>0.0004143830932489008</v>
+        <v>5.799004476666939E-05</v>
       </c>
       <c r="J17">
-        <v>0.000511901627708034</v>
+        <v>7.15294226380573E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N17">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O17">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P17">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q17">
-        <v>0.557247633003</v>
+        <v>0.05366178377200001</v>
       </c>
       <c r="R17">
-        <v>3.343485798018</v>
+        <v>0.3219707026320001</v>
       </c>
       <c r="S17">
-        <v>5.00115862891202E-06</v>
+        <v>1.169934522126835E-06</v>
       </c>
       <c r="T17">
-        <v>4.823723778595572E-06</v>
+        <v>1.199060508867194E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.09219533333333334</v>
+        <v>0.006662</v>
       </c>
       <c r="H18">
-        <v>0.276586</v>
+        <v>0.019986</v>
       </c>
       <c r="I18">
-        <v>0.0004143830932489008</v>
+        <v>5.799004476666939E-05</v>
       </c>
       <c r="J18">
-        <v>0.000511901627708034</v>
+        <v>7.15294226380573E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N18">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O18">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P18">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q18">
-        <v>13.46603259296733</v>
+        <v>0.1418219639726667</v>
       </c>
       <c r="R18">
-        <v>121.194293336706</v>
+        <v>1.276397675754</v>
       </c>
       <c r="S18">
-        <v>0.0001208542865163979</v>
+        <v>3.09200328398377E-06</v>
       </c>
       <c r="T18">
-        <v>0.0001748497914795714</v>
+        <v>4.753469909204043E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.09219533333333334</v>
+        <v>0.006662</v>
       </c>
       <c r="H19">
-        <v>0.276586</v>
+        <v>0.019986</v>
       </c>
       <c r="I19">
-        <v>0.0004143830932489008</v>
+        <v>5.799004476666939E-05</v>
       </c>
       <c r="J19">
-        <v>0.000511901627708034</v>
+        <v>7.15294226380573E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N19">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O19">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P19">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q19">
-        <v>5.385962220445999</v>
+        <v>0.682470316134</v>
       </c>
       <c r="R19">
-        <v>48.47365998401399</v>
+        <v>6.142232845206</v>
       </c>
       <c r="S19">
-        <v>4.833766863866183E-05</v>
+        <v>1.487922180456103E-05</v>
       </c>
       <c r="T19">
-        <v>6.993406295880015E-05</v>
+        <v>2.287446895244784E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>31.1177355</v>
+        <v>23.049115</v>
       </c>
       <c r="H20">
-        <v>62.235471</v>
+        <v>46.09823</v>
       </c>
       <c r="I20">
-        <v>0.1398624314830591</v>
+        <v>0.2006333249297675</v>
       </c>
       <c r="J20">
-        <v>0.1151845679321301</v>
+        <v>0.1649844779613916</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N20">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O20">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P20">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q20">
-        <v>6644.733367190905</v>
+        <v>5271.146478896375</v>
       </c>
       <c r="R20">
-        <v>26578.93346876362</v>
+        <v>21084.5859155855</v>
       </c>
       <c r="S20">
-        <v>0.05963482596967354</v>
+        <v>0.1149215662127502</v>
       </c>
       <c r="T20">
-        <v>0.03834603797599099</v>
+        <v>0.07852172297208052</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>31.1177355</v>
+        <v>23.049115</v>
       </c>
       <c r="H21">
-        <v>62.235471</v>
+        <v>46.09823</v>
       </c>
       <c r="I21">
-        <v>0.1398624314830591</v>
+        <v>0.2006333249297675</v>
       </c>
       <c r="J21">
-        <v>0.1151845679321301</v>
+        <v>0.1649844779613916</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.424846</v>
       </c>
       <c r="O21">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P21">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q21">
-        <v>14.779326985411</v>
+        <v>10.94714643709667</v>
       </c>
       <c r="R21">
-        <v>88.67596191246599</v>
+        <v>65.68287862258001</v>
       </c>
       <c r="S21">
-        <v>0.0001326407763892692</v>
+        <v>0.0002386697503376682</v>
       </c>
       <c r="T21">
-        <v>0.0001279348476133993</v>
+        <v>0.0002446115290032148</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>31.1177355</v>
+        <v>23.049115</v>
       </c>
       <c r="H22">
-        <v>62.235471</v>
+        <v>46.09823</v>
       </c>
       <c r="I22">
-        <v>0.1398624314830591</v>
+        <v>0.2006333249297675</v>
       </c>
       <c r="J22">
-        <v>0.1151845679321301</v>
+        <v>0.1649844779613916</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N22">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O22">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P22">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q22">
-        <v>2373.477393771492</v>
+        <v>882.8872764067283</v>
       </c>
       <c r="R22">
-        <v>14240.86436262895</v>
+        <v>5297.32365844037</v>
       </c>
       <c r="S22">
-        <v>0.02130136809091481</v>
+        <v>0.01924871353892139</v>
       </c>
       <c r="T22">
-        <v>0.02054562220497212</v>
+        <v>0.01972791794284342</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>31.1177355</v>
+        <v>23.049115</v>
       </c>
       <c r="H23">
-        <v>62.235471</v>
+        <v>46.09823</v>
       </c>
       <c r="I23">
-        <v>0.1398624314830591</v>
+        <v>0.2006333249297675</v>
       </c>
       <c r="J23">
-        <v>0.1151845679321301</v>
+        <v>0.1649844779613916</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N23">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O23">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P23">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q23">
-        <v>188.0820191743807</v>
+        <v>185.65845470819</v>
       </c>
       <c r="R23">
-        <v>752.3280766975229</v>
+        <v>742.6338188327601</v>
       </c>
       <c r="S23">
-        <v>0.0016879892482775</v>
+        <v>0.00404772671014282</v>
       </c>
       <c r="T23">
-        <v>0.001085401001261073</v>
+        <v>0.002765664321108624</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>31.1177355</v>
+        <v>23.049115</v>
       </c>
       <c r="H24">
-        <v>62.235471</v>
+        <v>46.09823</v>
       </c>
       <c r="I24">
-        <v>0.1398624314830591</v>
+        <v>0.2006333249297675</v>
       </c>
       <c r="J24">
-        <v>0.1151845679321301</v>
+        <v>0.1649844779613916</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N24">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O24">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P24">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q24">
-        <v>4545.050441407048</v>
+        <v>490.6740854295783</v>
       </c>
       <c r="R24">
-        <v>27270.30264844229</v>
+        <v>2944.04451257747</v>
       </c>
       <c r="S24">
-        <v>0.04079069499387335</v>
+        <v>0.01069767926642443</v>
       </c>
       <c r="T24">
-        <v>0.03934349217597027</v>
+        <v>0.0109640022602105</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>31.1177355</v>
+        <v>23.049115</v>
       </c>
       <c r="H25">
-        <v>62.235471</v>
+        <v>46.09823</v>
       </c>
       <c r="I25">
-        <v>0.1398624314830591</v>
+        <v>0.2006333249297675</v>
       </c>
       <c r="J25">
-        <v>0.1151845679321301</v>
+        <v>0.1649844779613916</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N25">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O25">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P25">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q25">
-        <v>1817.868017059771</v>
+        <v>2361.203362452555</v>
       </c>
       <c r="R25">
-        <v>10907.20810235863</v>
+        <v>14167.22017471533</v>
       </c>
       <c r="S25">
-        <v>0.01631491240393068</v>
+        <v>0.05147896945119102</v>
       </c>
       <c r="T25">
-        <v>0.0157360797263223</v>
+        <v>0.05276055893614528</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>45.68416199999999</v>
+        <v>0.212799</v>
       </c>
       <c r="H26">
-        <v>137.052486</v>
+        <v>0.6383969999999999</v>
       </c>
       <c r="I26">
-        <v>0.2053329998124694</v>
+        <v>0.001852330161558462</v>
       </c>
       <c r="J26">
-        <v>0.2536548873219633</v>
+        <v>0.002284807806658053</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N26">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O26">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P26">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q26">
-        <v>9755.178862342176</v>
+        <v>48.66541294807499</v>
       </c>
       <c r="R26">
-        <v>58531.07317405306</v>
+        <v>291.9924776884499</v>
       </c>
       <c r="S26">
-        <v>0.0875502991032356</v>
+        <v>0.001061003616343058</v>
       </c>
       <c r="T26">
-        <v>0.08444412404077367</v>
+        <v>0.00108741772471974</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>45.68416199999999</v>
+        <v>0.212799</v>
       </c>
       <c r="H27">
-        <v>137.052486</v>
+        <v>0.6383969999999999</v>
       </c>
       <c r="I27">
-        <v>0.2053329998124694</v>
+        <v>0.001852330161558462</v>
       </c>
       <c r="J27">
-        <v>0.2536548873219633</v>
+        <v>0.002284807806658053</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.424846</v>
       </c>
       <c r="O27">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P27">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q27">
-        <v>21.697631829684</v>
+        <v>0.101068601318</v>
       </c>
       <c r="R27">
-        <v>195.278686467156</v>
+        <v>0.9096174118619998</v>
       </c>
       <c r="S27">
-        <v>0.0001947308381862539</v>
+        <v>2.203498234188403E-06</v>
       </c>
       <c r="T27">
-        <v>0.000281733047564588</v>
+        <v>3.387532802909466E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>45.68416199999999</v>
+        <v>0.212799</v>
       </c>
       <c r="H28">
-        <v>137.052486</v>
+        <v>0.6383969999999999</v>
       </c>
       <c r="I28">
-        <v>0.2053329998124694</v>
+        <v>0.001852330161558462</v>
       </c>
       <c r="J28">
-        <v>0.2536548873219633</v>
+        <v>0.002284807806658053</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N28">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O28">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P28">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q28">
-        <v>3484.518523540848</v>
+        <v>8.151181923126998</v>
       </c>
       <c r="R28">
-        <v>31360.66671186763</v>
+        <v>73.36063730814298</v>
       </c>
       <c r="S28">
-        <v>0.03127268533685501</v>
+        <v>0.0001777121157306444</v>
       </c>
       <c r="T28">
-        <v>0.04524475438786718</v>
+        <v>0.0002732044946401935</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>45.68416199999999</v>
+        <v>0.212799</v>
       </c>
       <c r="H29">
-        <v>137.052486</v>
+        <v>0.6383969999999999</v>
       </c>
       <c r="I29">
-        <v>0.2053329998124694</v>
+        <v>0.001852330161558462</v>
       </c>
       <c r="J29">
-        <v>0.2536548873219633</v>
+        <v>0.002284807806658053</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N29">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O29">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P29">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q29">
-        <v>276.1245089074529</v>
+        <v>1.714075941894</v>
       </c>
       <c r="R29">
-        <v>1656.747053444718</v>
+        <v>10.284455651364</v>
       </c>
       <c r="S29">
-        <v>0.002478148651677032</v>
+        <v>3.737029366167343E-05</v>
       </c>
       <c r="T29">
-        <v>0.002390227038367223</v>
+        <v>3.830064203338787E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>45.68416199999999</v>
+        <v>0.212799</v>
       </c>
       <c r="H30">
-        <v>137.052486</v>
+        <v>0.6383969999999999</v>
       </c>
       <c r="I30">
-        <v>0.2053329998124694</v>
+        <v>0.001852330161558462</v>
       </c>
       <c r="J30">
-        <v>0.2536548873219633</v>
+        <v>0.002284807806658053</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N30">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O30">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P30">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q30">
-        <v>6672.619884676733</v>
+        <v>4.530106891536999</v>
       </c>
       <c r="R30">
-        <v>60053.5789620906</v>
+        <v>40.77096202383299</v>
       </c>
       <c r="S30">
-        <v>0.05988510051422921</v>
+        <v>9.876541681604054E-05</v>
       </c>
       <c r="T30">
-        <v>0.08664067812129636</v>
+        <v>0.0001518363319136462</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>45.68416199999999</v>
+        <v>0.212799</v>
       </c>
       <c r="H31">
-        <v>137.052486</v>
+        <v>0.6383969999999999</v>
       </c>
       <c r="I31">
-        <v>0.2053329998124694</v>
+        <v>0.001852330161558462</v>
       </c>
       <c r="J31">
-        <v>0.2536548873219633</v>
+        <v>0.002284807806658053</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N31">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O31">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P31">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q31">
-        <v>2668.824567455345</v>
+        <v>21.799609847343</v>
       </c>
       <c r="R31">
-        <v>24019.42110709811</v>
+        <v>196.196488626087</v>
       </c>
       <c r="S31">
-        <v>0.02395203536828631</v>
+        <v>0.0004752752207728581</v>
       </c>
       <c r="T31">
-        <v>0.03465337068609429</v>
+        <v>0.0007306610805481756</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.1894406666666667</v>
+        <v>0.05774266666666666</v>
       </c>
       <c r="H32">
-        <v>0.568322</v>
+        <v>0.173228</v>
       </c>
       <c r="I32">
-        <v>0.0008514640232021932</v>
+        <v>0.0005026268125107878</v>
       </c>
       <c r="J32">
-        <v>0.001051842670497731</v>
+        <v>0.0006199789264858095</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N32">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O32">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P32">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q32">
-        <v>40.45225973795201</v>
+        <v>13.20528159463333</v>
       </c>
       <c r="R32">
-        <v>242.713558427712</v>
+        <v>79.23168956779999</v>
       </c>
       <c r="S32">
-        <v>0.0003630489496334205</v>
+        <v>0.0002879016261853913</v>
       </c>
       <c r="T32">
-        <v>0.000350168427175415</v>
+        <v>0.0002950690520440278</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.1894406666666667</v>
+        <v>0.05774266666666666</v>
       </c>
       <c r="H33">
-        <v>0.568322</v>
+        <v>0.173228</v>
       </c>
       <c r="I33">
-        <v>0.0008514640232021932</v>
+        <v>0.0005026268125107878</v>
       </c>
       <c r="J33">
-        <v>0.001051842670497731</v>
+        <v>0.0006199789264858095</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.424846</v>
       </c>
       <c r="O33">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P33">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q33">
-        <v>0.08997459204577779</v>
+        <v>0.02742480254311111</v>
       </c>
       <c r="R33">
-        <v>0.8097713284120001</v>
+        <v>0.246823222888</v>
       </c>
       <c r="S33">
-        <v>8.074995401374057E-07</v>
+        <v>5.979157046665145E-07</v>
       </c>
       <c r="T33">
-        <v>1.168275700289025E-06</v>
+        <v>9.19201582060068E-07</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.1894406666666667</v>
+        <v>0.05774266666666666</v>
       </c>
       <c r="H34">
-        <v>0.568322</v>
+        <v>0.173228</v>
       </c>
       <c r="I34">
-        <v>0.0008514640232021932</v>
+        <v>0.0005026268125107878</v>
       </c>
       <c r="J34">
-        <v>0.001051842670497731</v>
+        <v>0.0006199789264858095</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N34">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O34">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P34">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q34">
-        <v>14.44941711116267</v>
+        <v>2.211810115303555</v>
       </c>
       <c r="R34">
-        <v>130.044754000464</v>
+        <v>19.906291037732</v>
       </c>
       <c r="S34">
-        <v>0.0001296799174880499</v>
+        <v>4.822189700732942E-05</v>
       </c>
       <c r="T34">
-        <v>0.0001876185544217086</v>
+        <v>7.413360056129877E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.1894406666666667</v>
+        <v>0.05774266666666666</v>
       </c>
       <c r="H35">
-        <v>0.568322</v>
+        <v>0.173228</v>
       </c>
       <c r="I35">
-        <v>0.0008514640232021932</v>
+        <v>0.0005026268125107878</v>
       </c>
       <c r="J35">
-        <v>0.001051842670497731</v>
+        <v>0.0006199789264858095</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N35">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O35">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P35">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q35">
-        <v>1.145018508831</v>
+        <v>0.4651117521893334</v>
       </c>
       <c r="R35">
-        <v>6.870111052985999</v>
+        <v>2.790670513136</v>
       </c>
       <c r="S35">
-        <v>1.027625575517393E-05</v>
+        <v>1.014036912833921E-05</v>
       </c>
       <c r="T35">
-        <v>9.911667059428145E-06</v>
+        <v>1.039281766386702E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.1894406666666667</v>
+        <v>0.05774266666666666</v>
       </c>
       <c r="H36">
-        <v>0.568322</v>
+        <v>0.173228</v>
       </c>
       <c r="I36">
-        <v>0.0008514640232021932</v>
+        <v>0.0005026268125107878</v>
       </c>
       <c r="J36">
-        <v>0.001051842670497731</v>
+        <v>0.0006199789264858095</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N36">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O36">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P36">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q36">
-        <v>27.66966721128467</v>
+        <v>1.229237224810222</v>
       </c>
       <c r="R36">
-        <v>249.027004901562</v>
+        <v>11.063135023292</v>
       </c>
       <c r="S36">
-        <v>0.0002483283673850891</v>
+        <v>2.679983712988795E-05</v>
       </c>
       <c r="T36">
-        <v>0.0003592769814569536</v>
+        <v>4.120054465283688E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.1894406666666667</v>
+        <v>0.05774266666666666</v>
       </c>
       <c r="H37">
-        <v>0.568322</v>
+        <v>0.173228</v>
       </c>
       <c r="I37">
-        <v>0.0008514640232021932</v>
+        <v>0.0005026268125107878</v>
       </c>
       <c r="J37">
-        <v>0.001051842670497731</v>
+        <v>0.0006199789264858095</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N37">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O37">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P37">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q37">
-        <v>11.066940557542</v>
+        <v>5.915289098532</v>
       </c>
       <c r="R37">
-        <v>99.60246501787799</v>
+        <v>53.237601886788</v>
       </c>
       <c r="S37">
-        <v>9.932303340032238E-05</v>
+        <v>0.0001289651673551735</v>
       </c>
       <c r="T37">
-        <v>0.0001436987646839363</v>
+        <v>0.0001982637099817189</v>
       </c>
     </row>
   </sheetData>
